--- a/biology/Médecine/Taijin_kyōfushō/Taijin_kyōfushō.xlsx
+++ b/biology/Médecine/Taijin_kyōfushō/Taijin_kyōfushō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Taijin_ky%C5%8Dfush%C5%8D</t>
+          <t>Taijin_kyōfushō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le taijin kyōfushō (対人恐怖症?) est un syndrome psychiatrique lié à la culture observé au Japon et en Corée et qui se traduit par la crainte ou la conviction de représenter une gêne ou une nuisance pour autrui. La thérapie de Morita, inventée en 1919 est censée être efficace sur ce type de trouble.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Taijin_ky%C5%8Dfush%C5%8D</t>
+          <t>Taijin_kyōfushō</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un syndrome fréquent en Corée et au Japon. Littéralement il désigne le trouble (shō) lié à la peur (kyōfu) des relations interpersonnelles (taijin). De ce fait, il est assez souvent assimilé en occident aux phobies sociales. Pourtant, les deux situations sont tout à fait différentes. Le phobique social est en difficulté dans les interactions sociales, car il craint d'être l'objet de moqueries, ou de jugements négatifs, ou encore de se sentir embarrassé. La personne atteinte de taijin kyōfushō craint au contraire d'offenser les autres (par exemple par de mauvaises odeurs). Elle se soucie de l'embarras que va vivre l'autre par sa faute, ce qui est un mécanisme bien différent. Dans les deux cas cependant, il s'agit d'une peur de déplaire et d'être rejeté. 
 Dans le système de classification local, on distingue :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Taijin_ky%C5%8Dfush%C5%8D</t>
+          <t>Taijin_kyōfushō</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Classification internationale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa cinquième édition le DSM, manuel diagnostique et statistique des troubles mentaux, classe le taijin kyōfushō sous la rubrique 300.2(F42)[1] « Autres troubles obsessionnels compulsifs et affections liées ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa cinquième édition le DSM, manuel diagnostique et statistique des troubles mentaux, classe le taijin kyōfushō sous la rubrique 300.2(F42) « Autres troubles obsessionnels compulsifs et affections liées ».
 </t>
         </is>
       </c>
